--- a/public/TCPDFCustomize/DATA/upload.xlsx
+++ b/public/TCPDFCustomize/DATA/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACAF958-BEC9-45C9-AF9C-958D154602E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E412FC7-9B90-492B-A4AA-7B9BF2B790AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
     <t>fields_10</t>
   </si>
   <si>
+    <t>BOBO</t>
+  </si>
+  <si>
     <t>Steve</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
   </si>
   <si>
     <t>"3/1/1987"</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,52 +600,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>4784515789</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -653,52 +653,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>6985748512</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -706,52 +706,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>2350487541</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/TCPDFCustomize/DATA/upload.xlsx
+++ b/public/TCPDFCustomize/DATA/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E412FC7-9B90-492B-A4AA-7B9BF2B790AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACAF958-BEC9-45C9-AF9C-958D154602E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>fields_10</t>
   </si>
   <si>
-    <t>BOBO</t>
-  </si>
-  <si>
     <t>Steve</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>"3/1/1987"</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,52 +600,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
       <c r="E2">
         <v>4784515789</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -653,52 +653,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
       </c>
       <c r="E3">
         <v>6985748512</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -706,52 +706,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
       </c>
       <c r="E4">
         <v>2350487541</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/TCPDFCustomize/DATA/upload.xlsx
+++ b/public/TCPDFCustomize/DATA/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACAF958-BEC9-45C9-AF9C-958D154602E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC36A35-4752-47A7-A12A-ED5C45967FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -114,9 +114,6 @@
     <t>TEST 10</t>
   </si>
   <si>
-    <t>TOTO</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>email02@email.com</t>
-  </si>
-  <si>
-    <t>RIRI</t>
   </si>
   <si>
     <t>John</t>
@@ -138,16 +132,13 @@
     <t>email03@email.com</t>
   </si>
   <si>
-    <t>"1/1/1985"</t>
+    <t>BOBO1</t>
   </si>
   <si>
-    <t>"2/1/1986"</t>
+    <t>TOTO1</t>
   </si>
   <si>
-    <t>"3/1/1987"</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>RIRI1</t>
   </si>
 </sst>
 </file>
@@ -524,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -600,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -614,8 +605,8 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
+      <c r="G2" s="1">
+        <v>31048</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -653,22 +644,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
       </c>
       <c r="E3">
         <v>6985748512</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>31444</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -706,51 +697,5298 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
       </c>
       <c r="E4">
         <v>2350487541</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4784515789</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>6985748512</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>2350487541</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>4784515789</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>6985748512</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>2350487541</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>4784515789</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>6985748512</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>2350487541</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>4784515789</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>6985748512</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>2350487541</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>4784515789</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>6985748512</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>2350487541</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>4784515789</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>6985748512</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>2350487541</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>4784515789</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>6985748512</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>2350487541</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>4784515789</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>6985748512</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>2350487541</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>4784515789</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>6985748512</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>2350487541</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>4784515789</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>6985748512</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>2350487541</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>4784515789</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <v>6985748512</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>2350487541</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>4784515789</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>6985748512</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>2350487541</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>4784515789</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>6985748512</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43">
+        <v>2350487541</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>4784515789</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>6985748512</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <v>2350487541</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>4784515789</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>6985748512</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49">
+        <v>2350487541</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>4784515789</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51">
+        <v>6985748512</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52">
+        <v>2350487541</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>4784515789</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>6985748512</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>2350487541</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" t="s">
+        <v>27</v>
+      </c>
+      <c r="P55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>4784515789</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>6985748512</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" t="s">
+        <v>27</v>
+      </c>
+      <c r="P57" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58">
+        <v>2350487541</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" t="s">
+        <v>27</v>
+      </c>
+      <c r="P58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>4784515789</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>6985748512</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" t="s">
+        <v>27</v>
+      </c>
+      <c r="P60" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61">
+        <v>2350487541</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>4784515789</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" t="s">
+        <v>27</v>
+      </c>
+      <c r="P62" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63">
+        <v>6985748512</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64">
+        <v>2350487541</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" t="s">
+        <v>27</v>
+      </c>
+      <c r="P64" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>4784515789</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" t="s">
+        <v>27</v>
+      </c>
+      <c r="P65" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>6985748512</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" t="s">
+        <v>27</v>
+      </c>
+      <c r="P66" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67">
+        <v>2350487541</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" t="s">
+        <v>27</v>
+      </c>
+      <c r="P67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>4784515789</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" t="s">
+        <v>27</v>
+      </c>
+      <c r="P68" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69">
+        <v>6985748512</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" t="s">
+        <v>27</v>
+      </c>
+      <c r="P69" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70">
+        <v>2350487541</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" t="s">
+        <v>27</v>
+      </c>
+      <c r="P70" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>4784515789</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" t="s">
+        <v>27</v>
+      </c>
+      <c r="P71" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72">
+        <v>6985748512</v>
+      </c>
+      <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>2350487541</v>
+      </c>
+      <c r="F73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>4784515789</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" t="s">
+        <v>27</v>
+      </c>
+      <c r="P74" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75">
+        <v>6985748512</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" t="s">
+        <v>27</v>
+      </c>
+      <c r="P75" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76">
+        <v>2350487541</v>
+      </c>
+      <c r="F76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" t="s">
+        <v>27</v>
+      </c>
+      <c r="P76" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>4784515789</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" t="s">
+        <v>27</v>
+      </c>
+      <c r="P77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78">
+        <v>6985748512</v>
+      </c>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" t="s">
+        <v>27</v>
+      </c>
+      <c r="P78" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79">
+        <v>2350487541</v>
+      </c>
+      <c r="F79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" t="s">
+        <v>27</v>
+      </c>
+      <c r="P79" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>4784515789</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80" t="s">
+        <v>27</v>
+      </c>
+      <c r="P80" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <v>6985748512</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81" t="s">
+        <v>27</v>
+      </c>
+      <c r="P81" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82">
+        <v>2350487541</v>
+      </c>
+      <c r="F82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P82" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>4784515789</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" t="s">
+        <v>27</v>
+      </c>
+      <c r="P83" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84">
+        <v>6985748512</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" t="s">
+        <v>27</v>
+      </c>
+      <c r="P84" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85">
+        <v>2350487541</v>
+      </c>
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>4784515789</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" t="s">
+        <v>23</v>
+      </c>
+      <c r="L86" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" t="s">
+        <v>27</v>
+      </c>
+      <c r="P86" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87">
+        <v>6985748512</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" t="s">
+        <v>26</v>
+      </c>
+      <c r="O87" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>2350487541</v>
+      </c>
+      <c r="F88" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" t="s">
+        <v>26</v>
+      </c>
+      <c r="O88" t="s">
+        <v>27</v>
+      </c>
+      <c r="P88" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>4784515789</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" t="s">
+        <v>27</v>
+      </c>
+      <c r="P89" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90">
+        <v>6985748512</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" t="s">
+        <v>27</v>
+      </c>
+      <c r="P90" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91">
+        <v>2350487541</v>
+      </c>
+      <c r="F91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" t="s">
+        <v>26</v>
+      </c>
+      <c r="O91" t="s">
+        <v>27</v>
+      </c>
+      <c r="P91" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>4784515789</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" t="s">
+        <v>26</v>
+      </c>
+      <c r="O92" t="s">
+        <v>27</v>
+      </c>
+      <c r="P92" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>6985748512</v>
+      </c>
+      <c r="F93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" t="s">
+        <v>26</v>
+      </c>
+      <c r="O93" t="s">
+        <v>27</v>
+      </c>
+      <c r="P93" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>2350487541</v>
+      </c>
+      <c r="F94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" t="s">
+        <v>26</v>
+      </c>
+      <c r="O94" t="s">
+        <v>27</v>
+      </c>
+      <c r="P94" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>4784515789</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" t="s">
+        <v>26</v>
+      </c>
+      <c r="O95" t="s">
+        <v>27</v>
+      </c>
+      <c r="P95" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96">
+        <v>6985748512</v>
+      </c>
+      <c r="F96" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" t="s">
+        <v>24</v>
+      </c>
+      <c r="M96" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" t="s">
+        <v>26</v>
+      </c>
+      <c r="O96" t="s">
+        <v>27</v>
+      </c>
+      <c r="P96" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97">
+        <v>2350487541</v>
+      </c>
+      <c r="F97" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" t="s">
+        <v>24</v>
+      </c>
+      <c r="M97" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" t="s">
+        <v>26</v>
+      </c>
+      <c r="O97" t="s">
+        <v>27</v>
+      </c>
+      <c r="P97" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>4784515789</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" t="s">
+        <v>26</v>
+      </c>
+      <c r="O98" t="s">
+        <v>27</v>
+      </c>
+      <c r="P98" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99">
+        <v>6985748512</v>
+      </c>
+      <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" t="s">
+        <v>24</v>
+      </c>
+      <c r="M99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" t="s">
+        <v>27</v>
+      </c>
+      <c r="P99" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100">
+        <v>2350487541</v>
+      </c>
+      <c r="F100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" t="s">
+        <v>26</v>
+      </c>
+      <c r="O100" t="s">
+        <v>27</v>
+      </c>
+      <c r="P100" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>4784515789</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="1">
+        <v>31048</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" t="s">
+        <v>26</v>
+      </c>
+      <c r="O101" t="s">
+        <v>27</v>
+      </c>
+      <c r="P101" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102">
+        <v>6985748512</v>
+      </c>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" s="1">
+        <v>31444</v>
+      </c>
+      <c r="H102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" t="s">
+        <v>23</v>
+      </c>
+      <c r="L102" t="s">
+        <v>24</v>
+      </c>
+      <c r="M102" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" t="s">
+        <v>26</v>
+      </c>
+      <c r="O102" t="s">
+        <v>27</v>
+      </c>
+      <c r="P102" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103">
+        <v>2350487541</v>
+      </c>
+      <c r="F103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" s="1">
+        <v>31837</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" t="s">
+        <v>23</v>
+      </c>
+      <c r="L103" t="s">
+        <v>24</v>
+      </c>
+      <c r="M103" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" t="s">
+        <v>26</v>
+      </c>
+      <c r="O103" t="s">
+        <v>27</v>
+      </c>
+      <c r="P103" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q103" t="s">
         <v>29</v>
       </c>
     </row>

--- a/public/TCPDFCustomize/DATA/upload.xlsx
+++ b/public/TCPDFCustomize/DATA/upload.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmos\Pictures\pdf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1842B-DC15-4C90-AC26-03A65128834E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="28275" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -75,44 +67,137 @@
     <t>fields_10</t>
   </si>
   <si>
+    <t>HASEGAWA</t>
+  </si>
+  <si>
+    <t>TAIZO</t>
+  </si>
+  <si>
+    <t>PARIS</t>
+  </si>
+  <si>
+    <t>MIKI PARIS OPTIQUE SARL</t>
+  </si>
+  <si>
+    <t>80 rue de rennes</t>
+  </si>
+  <si>
+    <t>MIKI</t>
+  </si>
+  <si>
+    <t>RENNES</t>
+  </si>
+  <si>
+    <t>RENAUD</t>
+  </si>
+  <si>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>A.N.O.F.A.B.</t>
+  </si>
+  <si>
+    <t>TECHNOPOLE CITIS 1370, ROUTE D EPRON</t>
+  </si>
+  <si>
+    <t>AMORY</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>JARVILLE</t>
+  </si>
+  <si>
+    <t>SELARL DES DRS AMORY CATHERINE &amp; JEAN-LUC</t>
+  </si>
+  <si>
+    <t>70 AVENUE DE LA MALGRANGE</t>
+  </si>
+  <si>
+    <t>PEDINELLI</t>
+  </si>
+  <si>
+    <t>METZ</t>
+  </si>
+  <si>
+    <t>SELARL DE LA SEILLE</t>
+  </si>
+  <si>
+    <t>17 RUE DE LA CHARMINE</t>
+  </si>
+  <si>
+    <t>LEROUX</t>
+  </si>
+  <si>
+    <t>VINCENNES</t>
+  </si>
+  <si>
+    <t>CABINET LEROUX</t>
+  </si>
+  <si>
+    <t>32 RUE CELINE ROBERT</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>VERONIQUE</t>
+  </si>
+  <si>
+    <t>S.A.R.L. SECA</t>
+  </si>
+  <si>
+    <t>5 RUE PONSCARME</t>
+  </si>
+  <si>
+    <t>BAILLET</t>
+  </si>
+  <si>
+    <t>BORDEAUX</t>
+  </si>
+  <si>
+    <t>IMPRIMERIE BAILLET</t>
+  </si>
+  <si>
+    <t>249-251 RUE DU JARDIN PUBLIC BP 94</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>Sofie</t>
+  </si>
+  <si>
+    <t>FRS FRANCE SARL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 AVENUE BERTIE ALBRECHT</t>
+  </si>
+  <si>
     <t>Steve</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>email01@email.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST 1 </t>
-  </si>
-  <si>
-    <t>TEST 6</t>
-  </si>
-  <si>
-    <t>TEST 7</t>
-  </si>
-  <si>
-    <t>TEST 8</t>
-  </si>
-  <si>
-    <t>TEST 9</t>
-  </si>
-  <si>
-    <t>TEST 10</t>
-  </si>
-  <si>
-    <t>"1/1/1985"</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Adil</t>
+  </si>
+  <si>
+    <t>Nara</t>
+  </si>
+  <si>
+    <t>Damien</t>
+  </si>
+  <si>
+    <t>TEUGELS</t>
+  </si>
+  <si>
+    <t>HEROUVILLE ST CLAIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +226,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -155,19 +237,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -209,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,27 +315,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,24 +349,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,26 +524,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="9" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,62 +586,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4784515789</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>75006</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>75006</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -622,17 +652,31 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>14209</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -641,31 +685,238 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>54140</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>57000</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>94300</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>75013</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>33327</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>33327</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>75008</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/TCPDFCustomize/DATA/upload.xlsx
+++ b/public/TCPDFCustomize/DATA/upload.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmos\Pictures\pdf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C4C1A-F864-4635-89EF-69354DC9DE08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="28275" windowHeight="12315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -67,137 +75,44 @@
     <t>fields_10</t>
   </si>
   <si>
-    <t>HASEGAWA</t>
-  </si>
-  <si>
-    <t>TAIZO</t>
-  </si>
-  <si>
-    <t>PARIS</t>
-  </si>
-  <si>
-    <t>MIKI PARIS OPTIQUE SARL</t>
-  </si>
-  <si>
-    <t>80 rue de rennes</t>
-  </si>
-  <si>
-    <t>MIKI</t>
-  </si>
-  <si>
-    <t>RENNES</t>
-  </si>
-  <si>
-    <t>RENAUD</t>
-  </si>
-  <si>
-    <t>Valerie</t>
-  </si>
-  <si>
-    <t>A.N.O.F.A.B.</t>
-  </si>
-  <si>
-    <t>TECHNOPOLE CITIS 1370, ROUTE D EPRON</t>
-  </si>
-  <si>
-    <t>AMORY</t>
-  </si>
-  <si>
-    <t>Catherine</t>
-  </si>
-  <si>
-    <t>JARVILLE</t>
-  </si>
-  <si>
-    <t>SELARL DES DRS AMORY CATHERINE &amp; JEAN-LUC</t>
-  </si>
-  <si>
-    <t>70 AVENUE DE LA MALGRANGE</t>
-  </si>
-  <si>
-    <t>PEDINELLI</t>
-  </si>
-  <si>
-    <t>METZ</t>
-  </si>
-  <si>
-    <t>SELARL DE LA SEILLE</t>
-  </si>
-  <si>
-    <t>17 RUE DE LA CHARMINE</t>
-  </si>
-  <si>
-    <t>LEROUX</t>
-  </si>
-  <si>
-    <t>VINCENNES</t>
-  </si>
-  <si>
-    <t>CABINET LEROUX</t>
-  </si>
-  <si>
-    <t>32 RUE CELINE ROBERT</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>VERONIQUE</t>
-  </si>
-  <si>
-    <t>S.A.R.L. SECA</t>
-  </si>
-  <si>
-    <t>5 RUE PONSCARME</t>
-  </si>
-  <si>
-    <t>BAILLET</t>
-  </si>
-  <si>
-    <t>BORDEAUX</t>
-  </si>
-  <si>
-    <t>IMPRIMERIE BAILLET</t>
-  </si>
-  <si>
-    <t>249-251 RUE DU JARDIN PUBLIC BP 94</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>Sofie</t>
-  </si>
-  <si>
-    <t>FRS FRANCE SARL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 AVENUE BERTIE ALBRECHT</t>
-  </si>
-  <si>
     <t>Steve</t>
   </si>
   <si>
-    <t>Adil</t>
-  </si>
-  <si>
-    <t>Nara</t>
-  </si>
-  <si>
-    <t>Damien</t>
-  </si>
-  <si>
-    <t>TEUGELS</t>
-  </si>
-  <si>
-    <t>HEROUVILLE ST CLAIR</t>
+    <t>London</t>
+  </si>
+  <si>
+    <t>email01@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST 1 </t>
+  </si>
+  <si>
+    <t>TEST 6</t>
+  </si>
+  <si>
+    <t>TEST 7</t>
+  </si>
+  <si>
+    <t>TEST 8</t>
+  </si>
+  <si>
+    <t>TEST 9</t>
+  </si>
+  <si>
+    <t>TEST 10</t>
+  </si>
+  <si>
+    <t>"1/1/1985"</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,10 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,11 +155,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -283,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,9 +241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,6 +293,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,16 +486,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,337 +558,211 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>4784515789</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <v>75006</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4784515789</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>75006</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>14209</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4784515789</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>54140</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4784515789</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>57000</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>94300</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <v>75013</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>33327</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>33327</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>75008</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/TCPDFCustomize/DATA/upload.xlsx
+++ b/public/TCPDFCustomize/DATA/upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmos\Pictures\pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosmos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C4C1A-F864-4635-89EF-69354DC9DE08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E412FC7-9B90-492B-A4AA-7B9BF2B790AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,9 @@
     <t>fields_10</t>
   </si>
   <si>
+    <t>BOBO</t>
+  </si>
+  <si>
     <t>Steve</t>
   </si>
   <si>
@@ -87,6 +90,18 @@
     <t xml:space="preserve">TEST 1 </t>
   </si>
   <si>
+    <t>TEST 2</t>
+  </si>
+  <si>
+    <t>TEST 3</t>
+  </si>
+  <si>
+    <t>TEST 4</t>
+  </si>
+  <si>
+    <t>TEST 5</t>
+  </si>
+  <si>
     <t>TEST 6</t>
   </si>
   <si>
@@ -102,10 +117,37 @@
     <t>TEST 10</t>
   </si>
   <si>
+    <t>TOTO</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>email02@email.com</t>
+  </si>
+  <si>
+    <t>RIRI</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>email03@email.com</t>
+  </si>
+  <si>
     <t>"1/1/1985"</t>
   </si>
   <si>
-    <t>test</t>
+    <t>"2/1/1986"</t>
+  </si>
+  <si>
+    <t>"3/1/1987"</t>
   </si>
 </sst>
 </file>
@@ -141,14 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,236 +543,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>4784515789</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4784515789</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>6985748512</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4784515789</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>25</v>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>2350487541</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4784515789</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4784515789</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>25</v>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
